--- a/Source/DK.Web/ReportTemplates/4ABC.xlsx
+++ b/Source/DK.Web/ReportTemplates/4ABC.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\qlts\Source\DK.Web\ReportTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\qlts\Source\DK.Web\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B381B19-A6F1-4789-BE4A-38F8903845A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-29484" yWindow="4740" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="__row__">Sheet1!$A$9</definedName>
+    <definedName name="__sum__">Sheet1!$G$10</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <r>
       <t xml:space="preserve">BỘ CÔNG AN
@@ -153,9 +155,6 @@
     <t>Giá trị còn lại</t>
   </si>
   <si>
-    <t>&lt;#row.&gt;</t>
-  </si>
-  <si>
     <t>STT</t>
   </si>
   <si>
@@ -185,12 +184,66 @@
   </si>
   <si>
     <t>Mẫu &lt;#pattern&gt; ban hành kèm theo Thông tư số …………../2020/TT-BCA ngày …../…/2020</t>
+  </si>
+  <si>
+    <t>&lt;#row.No&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#row.Code&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#row.Name&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#row.CapCongTrinh&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#row.NamSuDung&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#row.SoTang&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#row.DienTichXayDung&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#row.NganSachBo&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#row.Khac&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#row.TongCong&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#row.HaoMonLuyKe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#row.GiaTriConLai&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#row.GhiChu&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#sum.DienTichXayDung&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#sum.NganSachBo&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#sum.Khac&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#sum.TongCong&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#sum.HaoMonLuyKe&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -296,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -329,49 +382,52 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -652,132 +708,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:M1"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" style="1" customWidth="1"/>
-    <col min="4" max="6" width="8.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" style="1" customWidth="1"/>
+    <col min="4" max="6" width="8.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="16"/>
       <c r="D1" s="8"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="8"/>
-      <c r="J1" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="J1" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
     </row>
-    <row r="2" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
+    <row r="2" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
     </row>
-    <row r="4" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
     </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="C6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="D6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="E6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="F6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="G6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="H6" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
       <c r="H7" s="6" t="s">
         <v>5</v>
       </c>
@@ -787,127 +843,141 @@
       <c r="J7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
     </row>
-    <row r="8" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+    <row r="8" spans="1:13" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
         <v>1</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>2</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>3</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>4</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>5</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="13">
         <v>6</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <v>7</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="13">
         <v>8</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="12">
         <v>9</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="13">
         <v>10</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="12">
         <v>11</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="13">
         <v>12</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="12">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+    <row r="10" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="1:13" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:13" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="A10:F10"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="K11:M11"/>
     <mergeCell ref="A11:C11"/>
@@ -924,8 +994,6 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="A10:F10"/>
   </mergeCells>
   <pageMargins left="0.1" right="0.1" top="0.5" bottom="0.25" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/Source/DK.Web/ReportTemplates/4ABC.xlsx
+++ b/Source/DK.Web/ReportTemplates/4ABC.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\qlts\Source\DK.Web\ReportTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\qlts\Source\DK.Web\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B381B19-A6F1-4789-BE4A-38F8903845A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29484" yWindow="4740" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29490" yWindow="4740" windowWidth="23040" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -30,23 +29,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
-  <si>
-    <r>
-      <t xml:space="preserve">BỘ CÔNG AN
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>…………………………………
-…………………………………</t>
-    </r>
-  </si>
   <si>
     <t>Thời điểm: Ngày……. tháng……. Năm…….</t>
   </si>
@@ -183,9 +165,6 @@
 Loại tài sản: Nhà</t>
   </si>
   <si>
-    <t>Mẫu &lt;#pattern&gt; ban hành kèm theo Thông tư số …………../2020/TT-BCA ngày …../…/2020</t>
-  </si>
-  <si>
     <t>&lt;#row.No&gt;</t>
   </si>
   <si>
@@ -238,12 +217,19 @@
   </si>
   <si>
     <t>&lt;#sum.HaoMonLuyKe&gt;</t>
+  </si>
+  <si>
+    <t>Mẫu &lt;#pattern&gt; ban hành kèm theo Thông tư số 109/2020/TT-BCA ngày 10/10/2020</t>
+  </si>
+  <si>
+    <t>BỘ CÔNG AN
+Viện Khoa Học Hình Sự</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -393,6 +379,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -411,9 +406,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -422,12 +414,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -708,146 +694,146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" style="1" customWidth="1"/>
-    <col min="4" max="6" width="8.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9.5546875" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" style="1" customWidth="1"/>
+    <col min="4" max="6" width="8.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16"/>
+    <row r="1" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="8"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="8"/>
-      <c r="J1" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
+      <c r="J1" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
     </row>
-    <row r="2" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+    <row r="2" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
     </row>
-    <row r="4" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+    <row r="4" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
     </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="C6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="D6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="E6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="F6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="G6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="H6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="21" t="s">
+    </row>
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="I7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-    </row>
-    <row r="8" spans="1:13" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>1</v>
       </c>
@@ -888,94 +874,96 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="D9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="E9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="M9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="7" t="s">
+    </row>
+    <row r="10" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="H10" s="14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="14" t="s">
+      <c r="I10" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="J10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="K10" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>37</v>
-      </c>
       <c r="L10" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="1:13" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
+    <row r="11" spans="1:13" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="K11" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
+      <c r="K11" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A1:C1"/>
@@ -992,8 +980,6 @@
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <pageMargins left="0.1" right="0.1" top="0.5" bottom="0.25" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/Source/DK.Web/ReportTemplates/4ABC.xlsx
+++ b/Source/DK.Web/ReportTemplates/4ABC.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Thời điểm: Ngày……. tháng……. Năm…….</t>
   </si>
@@ -224,6 +224,9 @@
   <si>
     <t>BỘ CÔNG AN
 Viện Khoa Học Hình Sự</t>
+  </si>
+  <si>
+    <t>&lt;#sum.GiaTriConLai&gt;</t>
   </si>
 </sst>
 </file>
@@ -335,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -376,13 +379,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -395,24 +413,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -697,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,55 +724,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24"/>
       <c r="D1" s="8"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="8"/>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="4" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
@@ -776,50 +782,50 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16" t="s">
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="6" t="s">
         <v>4</v>
       </c>
@@ -829,9 +835,9 @@
       <c r="J7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
     </row>
     <row r="8" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
@@ -878,10 +884,10 @@
       <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -893,22 +899,22 @@
       <c r="F9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="26" t="s">
         <v>29</v>
       </c>
       <c r="M9" s="7" t="s">
@@ -916,57 +922,54 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="14" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="14" t="s">
-        <v>29</v>
+      <c r="L10" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="M10" s="11"/>
     </row>
     <row r="11" spans="1:13" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="K11" s="20" t="s">
+      <c r="K11" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="A10:F10"/>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="J1:M1"/>
     <mergeCell ref="K11:M11"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A4:M4"/>
@@ -978,8 +981,11 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="M6:M7"/>
-    <mergeCell ref="J1:M1"/>
     <mergeCell ref="B6:B7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="A10:F10"/>
   </mergeCells>
   <pageMargins left="0.1" right="0.1" top="0.5" bottom="0.25" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/Source/DK.Web/ReportTemplates/4ABC.xlsx
+++ b/Source/DK.Web/ReportTemplates/4ABC.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\qlts\Source\DK.Web\ReportTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\qlts\Source\DK.Web\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4437598-132D-4B59-9C0B-AC9EF138C52B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29490" yWindow="4740" windowWidth="23040" windowHeight="12210"/>
+    <workbookView xWindow="1704" yWindow="1512" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -232,7 +233,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -338,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -382,6 +383,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -394,32 +416,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -700,132 +707,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:L10"/>
+      <selection activeCell="H9" sqref="H9:L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" style="1" customWidth="1"/>
-    <col min="4" max="6" width="8.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" style="1" customWidth="1"/>
+    <col min="4" max="6" width="8.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.21875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
       <c r="D1" s="8"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="8"/>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
     </row>
-    <row r="2" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
     </row>
-    <row r="4" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
     </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19" t="s">
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="6" t="s">
         <v>4</v>
       </c>
@@ -835,11 +842,11 @@
       <c r="J7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>1</v>
       </c>
@@ -880,7 +887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
@@ -899,75 +906,79 @@
       <c r="F9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="K9" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="L9" s="26" t="s">
+      <c r="L9" s="28" t="s">
         <v>29</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="27" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="I10" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="27" t="s">
+      <c r="J10" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="27" t="s">
+      <c r="K10" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="27" t="s">
+      <c r="L10" s="29" t="s">
         <v>38</v>
       </c>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="1:13" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:13" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="A10:F10"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="K11:M11"/>
@@ -982,10 +993,6 @@
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="A10:F10"/>
   </mergeCells>
   <pageMargins left="0.1" right="0.1" top="0.5" bottom="0.25" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
